--- a/results/I3_N5_M2_T15_C200_DepCentral_s0_P6_res.xlsx
+++ b/results/I3_N5_M2_T15_C200_DepCentral_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1175.209306175783</v>
+        <v>319.2572574679347</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.30930617577759</v>
+        <v>19.25725746793464</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.836925852814985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.836925852814985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>637.8400000000059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.0599999999999</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -907,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.43123270582125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.16307414718501</v>
+        <v>11.16307414718502</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.571119165100081</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.837257427557379</v>
+        <v>1.224115997544416</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>14.79834375740628</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,76 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>161.205</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.905</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>173.01</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>162.905</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>173.59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>256.8600000000006</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>259.2650000000006</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>262.5950000000006</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>273.0900000000006</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>267.1100000000006</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>93.02999999999935</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>87.77499999999934</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>97.16999999999935</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>85.99499999999935</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>97.73999999999934</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>145.4599999999998</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>137.2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>145.8799999999998</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>147.8799999999998</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>144.4799999999998</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999979</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>256.8600000000006</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>259.2650000000006</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>262.5950000000006</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>273.0900000000006</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>267.1100000000006</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>161.205</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>163.905</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>173.01</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>162.905</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>173.59</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>56.86000000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.26500000000061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>62.5950000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>73.0900000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>67.11000000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1735,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1845,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1856,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1867,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1889,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1911,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1922,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1933,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1944,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1955,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,61 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
